--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fruit_seller\Fruit_SE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abanu\Fruit_SE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFBAF10-98C7-47E2-B449-07395EC61C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786B3B9E-17B8-4BE2-9BC6-06AE93F942BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Fruit Name</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>No of fruits</t>
+  </si>
+  <si>
+    <t>Mango</t>
   </si>
 </sst>
 </file>
@@ -351,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F2"/>
+  <dimension ref="B2:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -368,6 +371,17 @@
       </c>
       <c r="F2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
